--- a/Final-Project-Test-Cases.xlsx
+++ b/Final-Project-Test-Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smtausif/Desktop/cprtausif/CPR_project/cprproversion1/cpr101_version1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD4B15C-81BA-7945-89FA-9CA79A0FF982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC64759E-EF5B-B844-9406-873CD6D479BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="0" windowWidth="20980" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="20980" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -559,18 +559,49 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-general description of a test.
-Identify the code structure being tested </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">general description of a test.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -580,7 +611,7 @@
           <rPr>
             <i/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -589,7 +620,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -603,18 +634,39 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The purpose of the test, also known as Use Case Testing
-</t>
-        </r>
-        <r>
-          <rPr>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -624,17 +676,38 @@
           <rPr>
             <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-+</t>
-        </r>
-        <r>
-          <rPr>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -643,9 +716,19 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -654,7 +737,7 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -742,7 +825,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -752,18 +835,27 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">reference value to confirm 
-the test result – this is documented </t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the test result – this is documented </t>
         </r>
         <r>
           <rPr>
             <i/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -772,12 +864,31 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>the test is run.
-This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the test is run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
         </r>
       </text>
     </comment>
@@ -787,7 +898,7 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -860,7 +971,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
   <si>
     <t>Comments</t>
   </si>
@@ -954,10 +1065,6 @@
     <t>Save as Final-Project_Test_Cases.xlsx after including module_test_cases worksheets</t>
   </si>
   <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
-  </si>
-  <si>
     <t>These test cases should come from the module test cases</t>
   </si>
   <si>
@@ -1157,12 +1264,83 @@
   <si>
     <t>Converted number is 99.897600</t>
   </si>
+  <si>
+    <t>"IWanrToByACar"</t>
+  </si>
+  <si>
+    <t>New destination string is 'IWanrToByACar'</t>
+  </si>
+  <si>
+    <t>"I Love Myself "</t>
+  </si>
+  <si>
+    <t>New destination string is 'I Love Myself'</t>
+  </si>
+  <si>
+    <t>"muscletech___helps__us__to__build__mass"</t>
+  </si>
+  <si>
+    <t>New destination string is 'muscletech___helps__us__to__build__mass'</t>
+  </si>
+  <si>
+    <t>Printing the converted number: 1234567890</t>
+  </si>
+  <si>
+    <t>Printing the converted number: 183484082488307</t>
+  </si>
+  <si>
+    <t>Printing the converted number: 33483340840</t>
+  </si>
+  <si>
+    <t>hello.there.iam.noone</t>
+  </si>
+  <si>
+    <t>hello.there.iam.noone
+Sentence #1 is 'hello'
+Sentence #2 is 'there'
+Sentence #3 is 'iam'
+Sentence #4 is 'noone'</t>
+  </si>
+  <si>
+    <t>hi.there</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'hi'
+Sentence #2 is 'there'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFE...IS...BEAUTIFUL
+</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'LIFE'
+Sentence #2 is 'IS'
+Sentence #3 is 'BEAUTIFUL'</t>
+  </si>
+  <si>
+    <t>"My Name is xyz", "x"</t>
+  </si>
+  <si>
+    <t>x' found at 11 position</t>
+  </si>
+  <si>
+    <t>"Be.a.Hero", "o"</t>
+  </si>
+  <si>
+    <t>o' found at 8 position</t>
+  </si>
+  <si>
+    <t>"Ele phant", "E"</t>
+  </si>
+  <si>
+    <t>E' found at 0 position</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1296,6 +1474,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1589,7 +1780,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1682,6 +1873,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1694,7 +1888,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1987,16 +2181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="59" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -2010,27 +2203,27 @@
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
@@ -2057,45 +2250,45 @@
       </c>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="str">
@@ -2104,22 +2297,22 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="str">
@@ -2133,17 +2326,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="str">
@@ -2152,22 +2345,22 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="str">
@@ -2176,22 +2369,22 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" t="str">
@@ -2205,17 +2398,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" t="str">
@@ -2229,17 +2422,17 @@
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" t="str">
@@ -2248,22 +2441,22 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" t="str">
@@ -2277,17 +2470,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="20">
         <v>5</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" t="str">
@@ -2301,17 +2494,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="19">
         <v>8910</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" t="str">
@@ -2320,22 +2513,22 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" t="str">
@@ -2345,18 +2538,18 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="30" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
@@ -2382,62 +2575,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" s="3"/>
       <c r="I20" s="1"/>
@@ -2447,57 +2640,57 @@
         <v>5</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="3"/>
       <c r="I23" s="1"/>
@@ -2507,17 +2700,17 @@
         <v>4</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7">
         <v>12</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" s="1"/>
@@ -2527,17 +2720,17 @@
         <v>4</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
@@ -2547,17 +2740,17 @@
         <v>4</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
@@ -2567,37 +2760,37 @@
         <v>3</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="7">
         <v>5.32</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="7">
         <v>600.99</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
@@ -2607,34 +2800,34 @@
         <v>3</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="7">
         <v>99.9876</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="30" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.2">
@@ -2665,12 +2858,18 @@
         <v>6</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="I32" s="1"/>
     </row>
@@ -2679,12 +2878,18 @@
         <v>6</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="I33" s="1"/>
     </row>
@@ -2693,12 +2898,18 @@
         <v>6</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="I34" s="1"/>
     </row>
@@ -2707,12 +2918,18 @@
         <v>5</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="I35" s="1"/>
     </row>
@@ -2721,12 +2938,18 @@
         <v>5</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="I36" s="1"/>
     </row>
@@ -2735,54 +2958,78 @@
         <v>5</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="I40" s="1"/>
     </row>
@@ -2791,12 +3038,18 @@
         <v>3</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1234567890</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="I41" s="1"/>
     </row>
@@ -2805,12 +3058,18 @@
         <v>3</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="C42" s="7">
+        <v>33483340840</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="I42" s="1"/>
     </row>
@@ -2819,12 +3078,18 @@
         <v>3</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C43" s="8">
+        <v>183484082488307</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
   </sheetData>
